--- a/handled.xlsx
+++ b/handled.xlsx
@@ -403,7 +403,7 @@
         <v>地址有效性</v>
       </c>
       <c r="D1" t="str">
-        <v>提现&gt;一万</v>
+        <v>数值&gt;一万</v>
       </c>
     </row>
     <row r="2">
